--- a/data/result3.xlsx
+++ b/data/result3.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="868" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Output2" r:id="rId5" sheetId="2"/>
+    <sheet name="Output2" sheetId="2" r:id="rId2"/>
+    <sheet name="05_02_2024_04_31_42" sheetId="3" r:id="rId3"/>
+    <sheet name="05_02_2024_15_28_39" sheetId="4" r:id="rId4"/>
+    <sheet name="05_02_2024_15_50_49" sheetId="5" r:id="rId5"/>
+    <sheet name="05_02_2024_16_01_25" r:id="rId9" sheetId="6"/>
+    <sheet name="05_02_2024_16_22_34" r:id="rId10" sheetId="7"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="111">
   <si>
     <t>Username</t>
   </si>
@@ -40,31 +35,995 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Pick the word and its Synonym:</t>
+  </si>
+  <si>
+    <t>62b54fd7f6914800091f664a</t>
+  </si>
+  <si>
+    <t>62b550d8c62b9f0009a8ee90</t>
+  </si>
+  <si>
+    <t>Pick the word and its 2 Synonyms from the given options:</t>
+  </si>
+  <si>
+    <t>62b552f7c62b9f0009a8eeb3</t>
+  </si>
+  <si>
+    <t>What is the Synonym for grief?</t>
+  </si>
+  <si>
+    <t>62b55420c62b9f0009a8eed2</t>
+  </si>
+  <si>
+    <t>What is the Synonym for vain?</t>
+  </si>
+  <si>
+    <t>62b553bb9e3ba900094cea58</t>
+  </si>
+  <si>
+    <t>62b55370f6914800091f667e</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Present:</t>
+  </si>
+  <si>
+    <t>62b5818f1ab0d800097343b6</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Messy:</t>
+  </si>
+  <si>
+    <t>62b58239764523000939346d</t>
+  </si>
+  <si>
+    <t>Frank made a prank call to Jisoo and talked to her. Synonym for prank:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank made a prank call to Jisoo and talked to her. </t>
+  </si>
+  <si>
+    <t>62b5828ad582f1000942daa5</t>
+  </si>
+  <si>
+    <t>Pick the word and its Antonym:</t>
+  </si>
+  <si>
+    <t>62b5844cd582f1000942dc8e</t>
+  </si>
+  <si>
+    <t>62b5840f76452300093934b8</t>
+  </si>
+  <si>
+    <t>Which one is the suitable Synonym for spear?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one is the suitable Synonym for spear? </t>
+  </si>
+  <si>
+    <t>62b58396d582f1000942dc5b</t>
+  </si>
+  <si>
+    <t>Synonym for aggressive is violent. Is it correct or incorrect?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synonym for aggressive is violent. Is it correct or incorrect? </t>
+  </si>
+  <si>
+    <t>62b59ec7d926d600094f40d8</t>
+  </si>
+  <si>
+    <t>Synonym for dizzy is faint. Is it correct or incorrect?</t>
+  </si>
+  <si>
+    <t>62b59f77086d0400092d2c68</t>
+  </si>
+  <si>
+    <t>Pick the word and  its Antonym:</t>
+  </si>
+  <si>
+    <t>62b59fcd23ece70009a96c14</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Useful:</t>
+  </si>
+  <si>
+    <t>62b5ac3f174b250009254aa0</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Take:</t>
+  </si>
+  <si>
+    <t>62b5aaf6df97fd0009e906cf</t>
+  </si>
+  <si>
+    <t>62b5a0d5086d0400092d2c71</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Funny:</t>
+  </si>
+  <si>
+    <t>62b5c06602a32d0009b9db8a</t>
+  </si>
+  <si>
+    <t>Are ‘good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bad’ Synonyms or Antonyms?</t>
+  </si>
+  <si>
+    <t>62b5c16102a32d0009b9dba6</t>
+  </si>
+  <si>
+    <t>Select the antonym for Hide:</t>
+  </si>
+  <si>
+    <t>62b5c1aa02a32d0009b9dc05</t>
+  </si>
+  <si>
+    <t>Select the correct Synonym for Kirk in the given words:</t>
+  </si>
+  <si>
+    <t>62b5c2ef02a32d0009b9dc19</t>
+  </si>
+  <si>
+    <t>Select the correct Synonym for Establish in the given words:</t>
+  </si>
+  <si>
+    <t>62b5c29d174b250009254cc6</t>
+  </si>
+  <si>
+    <t>Which of the following options is an Antonym for ‘Curve’?</t>
+  </si>
+  <si>
+    <t>62b5c879894e9a000927a10d</t>
+  </si>
+  <si>
+    <t>Choose the correct Synonym for Orderly in the given words:</t>
+  </si>
+  <si>
+    <t>62b6900d2a753e0009b344be</t>
+  </si>
+  <si>
+    <t>Are Jumble and Orderly Antonyms?</t>
+  </si>
+  <si>
+    <t>62b690924042fe0009ee0f64</t>
+  </si>
+  <si>
+    <t>Are Triumph and Victory Synonyms?</t>
+  </si>
+  <si>
+    <t>62b690c94042fe0009ee0f6a</t>
+  </si>
+  <si>
+    <t>Can we say ‘Seldom’ and ‘Frequent’ are Synonyms?</t>
+  </si>
+  <si>
+    <t>62b692124042fe0009ee0f97</t>
+  </si>
+  <si>
+    <t>Are ‘Object’ and ‘Gadget’ Synonyms?</t>
+  </si>
+  <si>
+    <t>62b691dae831c4000930765f</t>
+  </si>
+  <si>
+    <t>Are Young and Elderly Synonyms?</t>
+  </si>
+  <si>
+    <t>62b69118e831c4000930763b</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Synonym:||Pick the word and its Synonym:||62b54fd7f6914800091f664a</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Synonym:||Pick the word and its Synonym:||62b550d8c62b9f0009a8ee90</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its 2 Synonyms from the given options:||Pick the word and its 2 Synonyms from the given options:||62b552f7c62b9f0009a8eeb3</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||What is the Synonym for grief?||What is the Synonym for grief?||62b55420c62b9f0009a8eed2</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||What is the Synonym for vain?||What is the Synonym for vain?||62b553bb9e3ba900094cea58</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its 2 Synonyms from the given options:||Pick the word and its 2 Synonyms from the given options:||62b55370f6914800091f667e</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Present:||Select the Antonym for Present:||62b5818f1ab0d800097343b6</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Messy:||Select the Antonym for Messy:||62b58239764523000939346d</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Frank made a prank call to Jisoo and talked to her. Synonym for prank:||Frank made a prank call to Jisoo and talked to her. ||62b5828ad582f1000942daa5</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and its Antonym:||62b5844cd582f1000942dc8e</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and its Antonym:||62b5840f76452300093934b8</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Which one is the suitable Synonym for spear?||Which one is the suitable Synonym for spear? ||62b58396d582f1000942dc5b</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Synonym for aggressive is violent. Is it correct or incorrect?||Synonym for aggressive is violent. Is it correct or incorrect? ||62b59ec7d926d600094f40d8</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Synonym for stare is sleep. Is it correct or incorrect?||Synonym for stare is sleep. Is it correct or incorrect?||62b59f4cd926d600094f40e4</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and  its Antonym:||62b59fcd23ece70009a96c14</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Useful:||Select the Antonym for Useful:||62b5ac3f174b250009254aa0</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Take:||Select the Antonym for Take:||62b5aaf6df97fd0009e906cf</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and  its Antonym:||62b5a0d5086d0400092d2c71</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Funny:||Select the Antonym for Funny:||62b5c06602a32d0009b9db8a</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Are ‘good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bad’ Synonyms or Antonyms?||Are ‘good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bad’ Synonyms or Antonyms?||62b5c16102a32d0009b9dba6</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the antonym for Hide:||Select the antonym for Hide:||62b5c1aa02a32d0009b9dc05</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the correct Synonym for Kirk in the given words:||Select the correct Synonym for Kirk in the given words:||62b5c2ef02a32d0009b9dc19</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Select the correct Synonym for Establish in the given words:||Select the correct Synonym for Establish in the given words:||62b5c29d174b250009254cc6</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Which of the following options is an Antonym for ‘Curve’?||Which of the following options is an Antonym for ‘Curve’?||62b5c879894e9a000927a10d</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Choose the correct Synonym for Orderly in the given words:||Choose the correct Synonym for Orderly in the given words:||62b6900d2a753e0009b344be</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Are Jumble and Orderly Antonyms?||Are Jumble and Orderly Antonyms?||62b690924042fe0009ee0f64</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Are Triumph and Victory Synonyms?||Are Triumph and Victory Synonyms?||62b690c94042fe0009ee0f6a</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Can we say ‘Seldom’ and ‘Frequent’ are Synonyms?||Can we say ‘Seldom’ and ‘Frequent’ are Synonyms?||62b692124042fe0009ee0f97</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Are ‘Object’ and ‘Gadget’ Synonyms?||Are ‘Object’ and ‘Gadget’ Synonyms?||62b691dae831c4000930765f</t>
+  </si>
+  <si>
+    <t>autostudentone.9606178621||III||English||Pass||Are Young and Elderly Synonyms?||Are Young and Elderly Synonyms?||62b69118e831c4000930763b</t>
+  </si>
+  <si>
+    <t>62b551039e3ba900094cea2c</t>
+  </si>
+  <si>
+    <t>Select the Antonym for Full:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the Antonym for </t>
+  </si>
+  <si>
+    <t>62b5820b764523000939344a</t>
+  </si>
+  <si>
+    <t>Synonym for stare is sleep. Is it correct or incorrect?</t>
+  </si>
+  <si>
+    <t>62b59f4cd926d600094f40e4</t>
+  </si>
+  <si>
+    <t>Gina succeeded against strong competition. Antonym for succeeded:</t>
+  </si>
+  <si>
+    <t>Gina succeeded against strong competition.</t>
+  </si>
+  <si>
+    <t>62b5c12f02a32d0009b9db99</t>
+  </si>
+  <si>
+    <t>Test failed !!!!!!!!!!!!!!!!!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -72,24 +1031,372 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -138,7 +1445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,7 +1480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,30 +1654,1728 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="66.2727272727273"/>
+    <col min="6" max="6" customWidth="true" width="56.2727272727273"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +3398,696 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="20">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="22">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s" s="24">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s" s="28">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s" s="32">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s" s="34">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="36">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s" s="38">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s" s="40">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s" s="42">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s" s="44">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s" s="46">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s" s="48">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s" s="50">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s" s="52">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s" s="54">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s" s="56">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s" s="58">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s" s="60">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s" s="62">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/result3.xlsx
+++ b/data/result3.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="868" activeTab="4"/>
+    <workbookView windowWidth="8130" windowHeight="1410" tabRatio="868" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Output2" sheetId="2" r:id="rId2"/>
-    <sheet name="05_02_2024_04_31_42" sheetId="3" r:id="rId3"/>
-    <sheet name="05_02_2024_15_28_39" sheetId="4" r:id="rId4"/>
-    <sheet name="05_02_2024_15_50_49" sheetId="5" r:id="rId5"/>
-    <sheet name="05_02_2024_16_01_25" r:id="rId9" sheetId="6"/>
-    <sheet name="05_02_2024_16_22_34" r:id="rId10" sheetId="7"/>
+    <sheet name="Output2" sheetId="2" r:id="rId1"/>
+    <sheet name="21_02_2024_16_34_28" sheetId="36" r:id="rId2"/>
+    <sheet name="21_02_2024_17_05_44" r:id="rId6" sheetId="37"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="154">
   <si>
     <t>Username</t>
   </si>
@@ -37,7 +33,259 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>autostudentone.9606178621</t>
+    <t>four.9393688889</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Vitamin A is rich in _______.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin A is rich in _______. </t>
+  </si>
+  <si>
+    <t>62b46ca847c3f80009b25528</t>
+  </si>
+  <si>
+    <t>Sugary foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> potatoes and bananas are rich in proteins</t>
+  </si>
+  <si>
+    <t>62b46d42c5c5ef00094fa7cf</t>
+  </si>
+  <si>
+    <t>Which of the following is rich in vitamins and minerals?</t>
+  </si>
+  <si>
+    <t>62b45a3650958b00098e5188</t>
+  </si>
+  <si>
+    <t>Refer to the given relationship: Select the pair with a similar type of relationship:</t>
+  </si>
+  <si>
+    <t>Refer to the given relationship:</t>
+  </si>
+  <si>
+    <t>62b45ccedf5ec60009e4fe02</t>
+  </si>
+  <si>
+    <t>Identify the food items that are rich in fats:</t>
+  </si>
+  <si>
+    <t>62b45c0cae14fc000978540f</t>
+  </si>
+  <si>
+    <t>Which of the following are good sources of vitamin C?</t>
+  </si>
+  <si>
+    <t>62b45b7f50958b00098e51c0</t>
+  </si>
+  <si>
+    <t>Oats are rich in __________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oats are rich in __________. </t>
+  </si>
+  <si>
+    <t>62b46099495cc400099a5e90</t>
+  </si>
+  <si>
+    <t>Vitamins and minerals provide more energy.</t>
+  </si>
+  <si>
+    <t>62b460c2495cc400099a5eae</t>
+  </si>
+  <si>
+    <t>Nutrients that are needed in large quantities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrients that are needed in large quantities. </t>
+  </si>
+  <si>
+    <t>62b461ed8e1b1100096af55c</t>
+  </si>
+  <si>
+    <t>__________ contain good sources of vitamins and minerals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__________ contain good sources of vitamins and minerals. </t>
+  </si>
+  <si>
+    <t>62b46399c5c5ef00094fa651</t>
+  </si>
+  <si>
+    <t>Select the incorrect match from the following.</t>
+  </si>
+  <si>
+    <t>62b462f9495cc400099a5f68</t>
+  </si>
+  <si>
+    <t>Red meat is rich in ___________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red meat is rich in ___________. </t>
+  </si>
+  <si>
+    <t>62b462ab52149500097bf1e6</t>
+  </si>
+  <si>
+    <t>Vitamins are energy giving foods.</t>
+  </si>
+  <si>
+    <t>62b466e3495cc400099a6017</t>
+  </si>
+  <si>
+    <t>_________ gives complete nutrition for infants and younger children.</t>
+  </si>
+  <si>
+    <t>62b467d88e1b1100096af62e</t>
+  </si>
+  <si>
+    <t>What is one important thing protein does for the body?</t>
+  </si>
+  <si>
+    <t>62b468118e1b1100096af638</t>
+  </si>
+  <si>
+    <t>Identify the incorrect match.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify the incorrect match. </t>
+  </si>
+  <si>
+    <t>62b46a82d157680009235692</t>
+  </si>
+  <si>
+    <t>The nutrient that provides us warmth and acts like an insulator trapping heat in our bodies.</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>62b46947c5c5ef00094fa6e6</t>
+  </si>
+  <si>
+    <t>Which of the following activities require lots of carbohydrates?</t>
+  </si>
+  <si>
+    <t>62b468dbd15768000923561d</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brown rice and Bananas are loaded with lots of ________.</t>
+  </si>
+  <si>
+    <t>62b46e1e8e1b1100096af758</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popcorn &amp; Potatoes are examples of ___________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popcorn &amp; Potatoes are examples of ___________. </t>
+  </si>
+  <si>
+    <t>62b46e52d157680009235769</t>
+  </si>
+  <si>
+    <t>Identify ‘X’</t>
+  </si>
+  <si>
+    <t>62b46f788e1b1100096af776</t>
+  </si>
+  <si>
+    <t>Which of these statements is/are INCORRECT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of these statements is/are INCORRECT? </t>
+  </si>
+  <si>
+    <t>62b46f30c8770f0009b1bca5</t>
+  </si>
+  <si>
+    <t>If there are three servings in a fruit cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and one serving is 20 calories</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> how many calories are in the entire fruit cup?</t>
+  </si>
+  <si>
+    <t>62b46effc8770f0009b1bc7d</t>
+  </si>
+  <si>
+    <t>Which of the following nutrients give energy even when we do not take food for a long time?</t>
+  </si>
+  <si>
+    <t>62b4736fa73894000964ce51</t>
+  </si>
+  <si>
+    <t>_________ includes all the stuff that's in our food such as Vitamins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proteins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fats and more.</t>
+  </si>
+  <si>
+    <t>62b473b6a73894000964ce72</t>
+  </si>
+  <si>
+    <t>The type of nutrients present in water:</t>
+  </si>
+  <si>
+    <t>62b475f1a3f9f90009725104</t>
+  </si>
+  <si>
+    <t>What has a green top</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> red on its belly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seeds on the outside and rich in Vitamin C?</t>
+  </si>
+  <si>
+    <t>62b47837d1576800092359b1</t>
+  </si>
+  <si>
+    <t>Unscramble the given word. MLINEARS HINT: Also called Protective nutrients.</t>
+  </si>
+  <si>
+    <t>Unscramble the given word.</t>
+  </si>
+  <si>
+    <t>62b47792a3f9f90009725186</t>
+  </si>
+  <si>
+    <t>Carbohydrates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fats &amp; proteins are the categories of _________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fats &amp; proteins are the categories of _________. </t>
+  </si>
+  <si>
+    <t>62b47731a3f9f90009725168</t>
+  </si>
+  <si>
+    <t>three.9393688889</t>
   </si>
   <si>
     <t>III</t>
@@ -46,22 +294,19 @@
     <t>English</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Pick the word and its Synonym:</t>
   </si>
   <si>
     <t>62b54fd7f6914800091f664a</t>
   </si>
   <si>
-    <t>62b550d8c62b9f0009a8ee90</t>
+    <t>62b550852b904e0008c10499</t>
   </si>
   <si>
     <t>Pick the word and its 2 Synonyms from the given options:</t>
   </si>
   <si>
-    <t>62b552f7c62b9f0009a8eeb3</t>
+    <t>648ff4d832cc94000809f1b8</t>
   </si>
   <si>
     <t>What is the Synonym for grief?</t>
@@ -85,10 +330,13 @@
     <t>62b5818f1ab0d800097343b6</t>
   </si>
   <si>
-    <t>Select the Antonym for Messy:</t>
-  </si>
-  <si>
-    <t>62b58239764523000939346d</t>
+    <t>Select the Antonym for Death:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the Antonym for </t>
+  </si>
+  <si>
+    <t>62b581cc367b9f0009090fc2</t>
   </si>
   <si>
     <t>Frank made a prank call to Jisoo and talked to her. Synonym for prank:</t>
@@ -127,10 +375,13 @@
     <t>62b59ec7d926d600094f40d8</t>
   </si>
   <si>
-    <t>Synonym for dizzy is faint. Is it correct or incorrect?</t>
-  </si>
-  <si>
-    <t>62b59f77086d0400092d2c68</t>
+    <t>Synonym for dodge is jump. Is it correct or incorrect?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synonym for dodge is jump. Is it correct or incorrect? </t>
+  </si>
+  <si>
+    <t>62b59f0eb57f48000987d41d</t>
   </si>
   <si>
     <t>Pick the word and  its Antonym:</t>
@@ -160,13 +411,13 @@
     <t>62b5c06602a32d0009b9db8a</t>
   </si>
   <si>
-    <t>Are ‘good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bad’ Synonyms or Antonyms?</t>
-  </si>
-  <si>
-    <t>62b5c16102a32d0009b9dba6</t>
+    <t>Gulliver saw many Dwarf people at the seashore who were trying to tie him to the trunk of a tree. Antonym for Dwarf:</t>
+  </si>
+  <si>
+    <t>Gulliver saw many Dwarf people at the seashore who were trying to tie him to the trunk of a tree.</t>
+  </si>
+  <si>
+    <t>62b5c0ec174b250009254cae</t>
   </si>
   <si>
     <t>Select the antonym for Hide:</t>
@@ -199,10 +450,10 @@
     <t>62b6900d2a753e0009b344be</t>
   </si>
   <si>
-    <t>Are Jumble and Orderly Antonyms?</t>
-  </si>
-  <si>
-    <t>62b690924042fe0009ee0f64</t>
+    <t>Choose the correct Synonym for Bay in the given words:</t>
+  </si>
+  <si>
+    <t>62b690382a753e0009b344c4</t>
   </si>
   <si>
     <t>Are Triumph and Victory Synonyms?</t>
@@ -227,132 +478,6 @@
   </si>
   <si>
     <t>62b69118e831c4000930763b</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Synonym:||Pick the word and its Synonym:||62b54fd7f6914800091f664a</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Synonym:||Pick the word and its Synonym:||62b550d8c62b9f0009a8ee90</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its 2 Synonyms from the given options:||Pick the word and its 2 Synonyms from the given options:||62b552f7c62b9f0009a8eeb3</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||What is the Synonym for grief?||What is the Synonym for grief?||62b55420c62b9f0009a8eed2</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||What is the Synonym for vain?||What is the Synonym for vain?||62b553bb9e3ba900094cea58</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its 2 Synonyms from the given options:||Pick the word and its 2 Synonyms from the given options:||62b55370f6914800091f667e</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Present:||Select the Antonym for Present:||62b5818f1ab0d800097343b6</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Messy:||Select the Antonym for Messy:||62b58239764523000939346d</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Frank made a prank call to Jisoo and talked to her. Synonym for prank:||Frank made a prank call to Jisoo and talked to her. ||62b5828ad582f1000942daa5</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and its Antonym:||62b5844cd582f1000942dc8e</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and its Antonym:||62b5840f76452300093934b8</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Which one is the suitable Synonym for spear?||Which one is the suitable Synonym for spear? ||62b58396d582f1000942dc5b</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Synonym for aggressive is violent. Is it correct or incorrect?||Synonym for aggressive is violent. Is it correct or incorrect? ||62b59ec7d926d600094f40d8</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Synonym for stare is sleep. Is it correct or incorrect?||Synonym for stare is sleep. Is it correct or incorrect?||62b59f4cd926d600094f40e4</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and  its Antonym:||62b59fcd23ece70009a96c14</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Useful:||Select the Antonym for Useful:||62b5ac3f174b250009254aa0</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Take:||Select the Antonym for Take:||62b5aaf6df97fd0009e906cf</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Pick the word and its Antonym:||Pick the word and  its Antonym:||62b5a0d5086d0400092d2c71</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the Antonym for Funny:||Select the Antonym for Funny:||62b5c06602a32d0009b9db8a</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Are ‘good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bad’ Synonyms or Antonyms?||Are ‘good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bad’ Synonyms or Antonyms?||62b5c16102a32d0009b9dba6</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the antonym for Hide:||Select the antonym for Hide:||62b5c1aa02a32d0009b9dc05</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the correct Synonym for Kirk in the given words:||Select the correct Synonym for Kirk in the given words:||62b5c2ef02a32d0009b9dc19</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Select the correct Synonym for Establish in the given words:||Select the correct Synonym for Establish in the given words:||62b5c29d174b250009254cc6</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Which of the following options is an Antonym for ‘Curve’?||Which of the following options is an Antonym for ‘Curve’?||62b5c879894e9a000927a10d</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Choose the correct Synonym for Orderly in the given words:||Choose the correct Synonym for Orderly in the given words:||62b6900d2a753e0009b344be</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Are Jumble and Orderly Antonyms?||Are Jumble and Orderly Antonyms?||62b690924042fe0009ee0f64</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Are Triumph and Victory Synonyms?||Are Triumph and Victory Synonyms?||62b690c94042fe0009ee0f6a</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Can we say ‘Seldom’ and ‘Frequent’ are Synonyms?||Can we say ‘Seldom’ and ‘Frequent’ are Synonyms?||62b692124042fe0009ee0f97</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Are ‘Object’ and ‘Gadget’ Synonyms?||Are ‘Object’ and ‘Gadget’ Synonyms?||62b691dae831c4000930765f</t>
-  </si>
-  <si>
-    <t>autostudentone.9606178621||III||English||Pass||Are Young and Elderly Synonyms?||Are Young and Elderly Synonyms?||62b69118e831c4000930763b</t>
-  </si>
-  <si>
-    <t>62b551039e3ba900094cea2c</t>
-  </si>
-  <si>
-    <t>Select the Antonym for Full:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the Antonym for </t>
-  </si>
-  <si>
-    <t>62b5820b764523000939344a</t>
-  </si>
-  <si>
-    <t>Synonym for stare is sleep. Is it correct or incorrect?</t>
-  </si>
-  <si>
-    <t>62b59f4cd926d600094f40e4</t>
-  </si>
-  <si>
-    <t>Gina succeeded against strong competition. Antonym for succeeded:</t>
-  </si>
-  <si>
-    <t>Gina succeeded against strong competition.</t>
-  </si>
-  <si>
-    <t>62b5c12f02a32d0009b9db99</t>
-  </si>
-  <si>
-    <t>Test failed !!!!!!!!!!!!!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -365,7 +490,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="82">
+  <fonts count="81">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,11 +647,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1277,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1340,7 +1460,6 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,22 +1779,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1707,16 +1810,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="6" customWidth="true" width="86.8181818181818"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s" s="0">
@@ -1752,13 +1858,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
@@ -1772,13 +1878,19 @@
         <v>8</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1795,13 +1907,13 @@
         <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1818,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1841,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1864,13 +1976,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1887,13 +1999,13 @@
         <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1910,13 +2022,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1933,13 +2045,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1956,13 +2068,13 @@
         <v>8</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1979,13 +2091,13 @@
         <v>8</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2002,13 +2114,13 @@
         <v>8</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2025,13 +2137,13 @@
         <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2048,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2071,13 +2183,13 @@
         <v>8</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2094,13 +2206,13 @@
         <v>8</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2117,13 +2229,13 @@
         <v>8</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2140,16 +2252,16 @@
         <v>8</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s" s="0">
         <v>5</v>
       </c>
@@ -2163,13 +2275,19 @@
         <v>8</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2186,19 +2304,19 @@
         <v>8</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2215,13 +2333,13 @@
         <v>8</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2238,16 +2356,16 @@
         <v>8</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s" s="0">
         <v>5</v>
       </c>
@@ -2261,13 +2379,25 @@
         <v>8</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2284,16 +2414,16 @@
         <v>8</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s" s="0">
         <v>5</v>
       </c>
@@ -2307,13 +2437,25 @@
         <v>8</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2330,16 +2472,16 @@
         <v>8</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s" s="0">
         <v>5</v>
       </c>
@@ -2353,13 +2495,25 @@
         <v>8</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>62</v>
+        <v>80</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2376,16 +2530,16 @@
         <v>8</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s" s="0">
         <v>5</v>
       </c>
@@ -2399,36 +2553,19 @@
         <v>8</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s" s="0">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2437,943 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s" s="0">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s" s="0">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s" s="0">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s" s="0">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s" s="0">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s" s="0">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s" s="0">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s" s="0">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s" s="0">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s" s="0">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s" s="0">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s" s="0">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="5" max="5" customWidth="true" width="66.2727272727273"/>
-    <col min="6" max="6" customWidth="true" width="56.2727272727273"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="G21" t="s" s="0">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="G22" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="G27" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -3400,692 +2601,692 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s" s="3">
         <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="6">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s" s="5">
         <v>8</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s" s="7">
         <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s" s="11">
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s" s="13">
         <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="16">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s" s="15">
         <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="18">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s" s="17">
         <v>8</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s" s="19">
         <v>8</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s" s="22">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s" s="21">
         <v>8</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s" s="24">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s" s="23">
         <v>8</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s" s="26">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s" s="25">
         <v>8</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s" s="27">
         <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s" s="30">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s" s="29">
         <v>8</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>36</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s" s="32">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s" s="31">
         <v>8</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>38</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s" s="34">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s" s="33">
         <v>8</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s" s="36">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s" s="35">
         <v>8</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s" s="37">
         <v>8</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s" s="40">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s" s="39">
         <v>8</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s" s="42">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s" s="41">
         <v>8</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s" s="44">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s" s="43">
         <v>8</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s" s="46">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s" s="45">
         <v>8</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>52</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s" s="48">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s" s="47">
         <v>8</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s" s="50">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s" s="49">
         <v>8</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s" s="52">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s" s="51">
         <v>8</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s" s="54">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s" s="53">
         <v>8</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>60</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s" s="56">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s" s="55">
         <v>8</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s" s="58">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s" s="57">
         <v>8</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>64</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s" s="60">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s" s="59">
         <v>8</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s" s="62">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s" s="61">
         <v>8</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
